--- a/DDF/Phase2/TY_02/Test_Data.xlsx
+++ b/DDF/Phase2/TY_02/Test_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N K Chaitra\Katalon Studio\Bimbo\Bimbo Mobile\DDF\Phase2\TY_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N K Chaitra\Katalon Studio\Merged_Project\18-02-2022\Bimbo Mobile-TY\DDF\Phase2\TY_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="397">
   <si>
     <t>014_SD_MUMB_PRO</t>
   </si>
@@ -1149,6 +1149,90 @@
   </si>
   <si>
     <t>KPTarjUnefo100gCU</t>
+  </si>
+  <si>
+    <t>VanLoad Acceptance</t>
+  </si>
+  <si>
+    <t>VLA_TC_70</t>
+  </si>
+  <si>
+    <t>Expected_Result-3</t>
+  </si>
+  <si>
+    <t>Vanload Stock Applied</t>
+  </si>
+  <si>
+    <t>VLA_TC_71</t>
+  </si>
+  <si>
+    <t>VLA_TC_72</t>
+  </si>
+  <si>
+    <t>VLA_TC_73</t>
+  </si>
+  <si>
+    <t>VLA_TC_74</t>
+  </si>
+  <si>
+    <t>VLA_TC_75</t>
+  </si>
+  <si>
+    <t>VLA_TC_76</t>
+  </si>
+  <si>
+    <t>VLA_TC_77</t>
+  </si>
+  <si>
+    <t>VLA_TC_78</t>
+  </si>
+  <si>
+    <t>VLA_TC_79</t>
+  </si>
+  <si>
+    <t>VLA_TC_80</t>
+  </si>
+  <si>
+    <t>Credit Note</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Pesito Credit</t>
+  </si>
+  <si>
+    <t>Transferencias Electrónicas</t>
+  </si>
+  <si>
+    <t>Cheques</t>
+  </si>
+  <si>
+    <t>ONSITE INV STATUS: SUCCESS</t>
+  </si>
+  <si>
+    <t>IVATAX</t>
+  </si>
+  <si>
+    <t>IEPSTAX</t>
+  </si>
+  <si>
+    <t>NOTAX</t>
+  </si>
+  <si>
+    <t>IEPSANDIVA</t>
+  </si>
+  <si>
+    <t>ITEMDISC</t>
+  </si>
+  <si>
+    <t>CATEGORYDISC</t>
+  </si>
+  <si>
+    <t>NOITEMDISC</t>
+  </si>
+  <si>
+    <t>NOCATEGORYDISC</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1312,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,12 +1345,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1275,6 +1353,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1346,7 +1436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,9 +1492,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1441,10 +1528,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1473,6 +1560,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4866,10 +4959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S238"/>
+  <dimension ref="A1:S258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5023,6 +5116,21 @@
       <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="D9" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -5065,6 +5173,9 @@
       <c r="C12" s="14" t="s">
         <v>93</v>
       </c>
+      <c r="D12" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="H12" s="15" t="s">
         <v>95</v>
       </c>
@@ -5419,10 +5530,10 @@
       <c r="A43" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="38" t="s">
         <v>368</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -5442,10 +5553,10 @@
       <c r="A44" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>368</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -5461,8 +5572,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E45" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="D46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5579,16 +5700,16 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>182</v>
       </c>
       <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="45" t="s">
         <v>148</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -5597,10 +5718,10 @@
       <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -5623,10 +5744,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5789,7 +5910,7 @@
       <c r="C65" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G65" s="20" t="b">
+      <c r="G65" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5847,7 +5968,7 @@
       <c r="C70" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>3</v>
       </c>
     </row>
@@ -5861,7 +5982,7 @@
       <c r="C71" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <v>3</v>
       </c>
     </row>
@@ -5875,10 +5996,10 @@
       <c r="C72" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>0</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="21">
         <v>3</v>
       </c>
     </row>
@@ -5892,10 +6013,10 @@
       <c r="C73" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <v>0</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="21">
         <v>3</v>
       </c>
     </row>
@@ -5909,7 +6030,7 @@
       <c r="C74" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="21">
         <v>3</v>
       </c>
     </row>
@@ -5940,7 +6061,7 @@
       <c r="D76" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="21">
         <v>3</v>
       </c>
       <c r="G76" s="9" t="b">
@@ -6015,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>177</v>
       </c>
@@ -6032,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>178</v>
       </c>
@@ -6049,8 +6170,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>179</v>
       </c>
       <c r="B83" s="14" t="s">
@@ -6066,8 +6187,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -6077,8 +6198,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -6088,8 +6209,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -6105,8 +6226,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B87" s="14" t="s">
@@ -6122,8 +6243,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B88" s="14" t="s">
@@ -6136,25 +6257,25 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="26" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="26" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -6164,7 +6285,7 @@
         <v>317</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="F90" s="9">
         <v>123456</v>
@@ -6172,12 +6293,15 @@
       <c r="G90" s="9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
+      <c r="H90" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="37" t="s">
         <v>367</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -6190,27 +6314,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="28"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="26" t="s">
+      <c r="C92" s="27"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>197</v>
       </c>
@@ -6242,13 +6366,13 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C99" s="29" t="s">
+      <c r="B99" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>132</v>
       </c>
       <c r="D99" s="9" t="s">
@@ -6259,10 +6383,10 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C100" s="14" t="s">
@@ -6276,10 +6400,10 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C101" s="14" t="s">
@@ -6293,10 +6417,10 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C102" s="14" t="s">
@@ -6310,58 +6434,58 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C103" s="30" t="s">
+      <c r="B103" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="29" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C104" s="30" t="s">
+      <c r="B104" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="29" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C105" s="30" t="s">
+      <c r="B105" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" s="29" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C106" s="30" t="s">
+      <c r="B106" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" s="29" t="s">
         <v>353</v>
       </c>
       <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B107" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C107" s="30" t="s">
+      <c r="B107" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="29" t="s">
         <v>352</v>
       </c>
       <c r="D107" s="9">
@@ -6369,13 +6493,13 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B108" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" s="30" t="s">
+      <c r="B108" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="29" t="s">
         <v>353</v>
       </c>
       <c r="D108" s="9">
@@ -6383,35 +6507,35 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109" s="30" t="s">
+      <c r="B109" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" s="29" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B110" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="29" t="s">
+      <c r="B110" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>132</v>
       </c>
       <c r="D110" s="9">
-        <v>87.56</v>
+        <v>97.29</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -6425,10 +6549,10 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="26" t="s">
+      <c r="A112" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B112" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C112" s="14" t="s">
@@ -6442,10 +6566,10 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C113" s="14" t="s">
@@ -6459,10 +6583,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C114" s="14" t="s">
@@ -6476,10 +6600,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="26" t="s">
+      <c r="A115" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -6493,10 +6617,10 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -6505,13 +6629,13 @@
       <c r="D116" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E116" s="20"/>
+      <c r="E116" s="19"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -6525,10 +6649,10 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="26" t="s">
+      <c r="A118" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -6545,10 +6669,10 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="26" t="s">
+      <c r="A119" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C119" s="11" t="s">
@@ -6562,10 +6686,10 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C120" s="14" t="s">
@@ -6582,21 +6706,21 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="26" t="s">
+      <c r="A121" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="B121" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" s="37" t="s">
+      <c r="B121" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" s="36" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C122" s="14" t="s">
@@ -6604,10 +6728,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C123" s="14" t="s">
@@ -6618,10 +6742,10 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="27" t="s">
+      <c r="B124" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C124" s="14" t="s">
@@ -6629,10 +6753,10 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="26" t="s">
+      <c r="A125" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C125" s="14" t="s">
@@ -6640,10 +6764,10 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="26" t="s">
+      <c r="A126" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C126" s="14" t="s">
@@ -6651,10 +6775,10 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="s">
+      <c r="A127" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C127" s="14" t="s">
@@ -6662,10 +6786,10 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="26" t="s">
+      <c r="A128" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B128" s="27" t="s">
+      <c r="B128" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C128" s="14" t="s">
@@ -6673,10 +6797,10 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26" t="s">
+      <c r="A129" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -6690,10 +6814,10 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="26" t="s">
+      <c r="A130" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="B130" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C130" s="14" t="s">
@@ -6707,10 +6831,10 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="26" t="s">
+      <c r="A131" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B131" s="27" t="s">
+      <c r="B131" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -6719,10 +6843,10 @@
       <c r="D131" s="16"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="26" t="s">
+      <c r="A132" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B132" s="27" t="s">
+      <c r="B132" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C132" s="14" t="s">
@@ -6730,10 +6854,10 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="26" t="s">
+      <c r="A133" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -6747,25 +6871,25 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="s">
+      <c r="A134" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B134" s="27" t="s">
+      <c r="B134" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="22"/>
+      <c r="D134" s="21"/>
       <c r="G134" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="26" t="s">
+      <c r="A135" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B135" s="27" t="s">
+      <c r="B135" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C135" s="14" t="s">
@@ -6773,10 +6897,10 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="26" t="s">
+      <c r="A136" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B136" s="27" t="s">
+      <c r="B136" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C136" s="14" t="s">
@@ -6784,10 +6908,10 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="26" t="s">
+      <c r="A137" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B137" s="27" t="s">
+      <c r="B137" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -6798,10 +6922,10 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="26" t="s">
+      <c r="A138" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="B138" s="27" t="s">
+      <c r="B138" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -6809,43 +6933,43 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="31" t="s">
+      <c r="A141" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="32" t="s">
+      <c r="A143" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B143" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C143" s="32" t="s">
+      <c r="C143" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D143" s="32" t="s">
+      <c r="D143" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="E143" s="32" t="s">
+      <c r="E143" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F143" s="32" t="s">
+      <c r="F143" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="G143" s="32" t="s">
+      <c r="G143" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H143" s="32" t="s">
+      <c r="H143" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="I143" s="32"/>
-      <c r="J143" s="32"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="31"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B144" s="27" t="s">
+      <c r="B144" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C144" s="14" t="s">
@@ -6859,7 +6983,7 @@
       <c r="A145" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B145" s="27" t="s">
+      <c r="B145" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -6876,7 +7000,7 @@
       <c r="A146" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B146" s="27" t="s">
+      <c r="B146" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C146" s="14" t="s">
@@ -6887,7 +7011,7 @@
       <c r="A147" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C147" s="14" t="s">
@@ -6898,7 +7022,7 @@
       <c r="A148" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B148" s="27" t="s">
+      <c r="B148" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C148" s="14" t="s">
@@ -6912,7 +7036,7 @@
       <c r="A149" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -6923,7 +7047,7 @@
       <c r="A150" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B150" s="27" t="s">
+      <c r="B150" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C150" s="14" t="s">
@@ -6934,7 +7058,7 @@
       <c r="A151" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B151" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -6945,7 +7069,7 @@
       <c r="A152" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B152" s="27" t="s">
+      <c r="B152" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C152" s="14" t="s">
@@ -6956,7 +7080,7 @@
       <c r="A153" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B153" s="27" t="s">
+      <c r="B153" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -6970,7 +7094,7 @@
       <c r="A154" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="B154" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C154" s="14" t="s">
@@ -6981,7 +7105,7 @@
       <c r="A155" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B155" s="27" t="s">
+      <c r="B155" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -6992,7 +7116,7 @@
       <c r="A156" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B156" s="27" t="s">
+      <c r="B156" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -7003,7 +7127,7 @@
       <c r="A157" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="27" t="s">
+      <c r="B157" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -7014,7 +7138,7 @@
       <c r="A158" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B158" s="27" t="s">
+      <c r="B158" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C158" s="14" t="s">
@@ -7025,7 +7149,7 @@
       <c r="A159" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7036,7 +7160,7 @@
       <c r="A160" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B160" s="27" t="s">
+      <c r="B160" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C160" s="14" t="s">
@@ -7047,7 +7171,7 @@
       <c r="A161" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B161" s="27" t="s">
+      <c r="B161" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C161" s="14" t="s">
@@ -7061,7 +7185,7 @@
       <c r="A162" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B162" s="27" t="s">
+      <c r="B162" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -7078,7 +7202,7 @@
       <c r="A163" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B163" s="27" t="s">
+      <c r="B163" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C163" s="14" t="s">
@@ -7089,7 +7213,7 @@
       <c r="A164" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B164" s="27" t="s">
+      <c r="B164" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C164" s="14" t="s">
@@ -7106,7 +7230,7 @@
       <c r="A165" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B165" s="27" t="s">
+      <c r="B165" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C165" s="14" t="s">
@@ -7120,13 +7244,13 @@
       <c r="A166" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B166" s="27" t="s">
+      <c r="B166" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D166" s="20" t="s">
+      <c r="D166" s="19" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7134,13 +7258,13 @@
       <c r="A167" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="B167" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D167" s="20" t="s">
+      <c r="D167" s="19" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7148,13 +7272,13 @@
       <c r="A168" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B168" s="27" t="s">
+      <c r="B168" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D168" s="20" t="s">
+      <c r="D168" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7162,13 +7286,13 @@
       <c r="A169" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B169" s="27" t="s">
+      <c r="B169" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D169" s="20" t="s">
+      <c r="D169" s="19" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7176,7 +7300,7 @@
       <c r="A170" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B170" s="27" t="s">
+      <c r="B170" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C170" s="14" t="s">
@@ -7187,7 +7311,7 @@
       <c r="A171" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B171" s="27" t="s">
+      <c r="B171" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C171" s="14" t="s">
@@ -7198,7 +7322,7 @@
       <c r="A172" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="B172" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C172" s="14" t="s">
@@ -7209,7 +7333,7 @@
       <c r="A173" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="B173" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C173" s="14" t="s">
@@ -7220,7 +7344,7 @@
       <c r="A174" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C174" s="14" t="s">
@@ -7234,7 +7358,7 @@
       <c r="A175" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B175" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C175" s="14" t="s">
@@ -7245,7 +7369,7 @@
       <c r="A176" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="B176" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -7256,7 +7380,7 @@
       <c r="A177" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="B177" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C177" s="14" t="s">
@@ -7267,7 +7391,7 @@
       <c r="A178" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="B178" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C178" s="14" t="s">
@@ -7278,7 +7402,7 @@
       <c r="A179" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B179" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C179" s="14" t="s">
@@ -7292,7 +7416,7 @@
       <c r="A180" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="B180" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C180" s="14" t="s">
@@ -7303,7 +7427,7 @@
       <c r="A181" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B181" s="27" t="s">
+      <c r="B181" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C181" s="14" t="s">
@@ -7314,7 +7438,7 @@
       <c r="A182" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B182" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C182" s="14" t="s">
@@ -7325,7 +7449,7 @@
       <c r="A183" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B183" s="27" t="s">
+      <c r="B183" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C183" s="14" t="s">
@@ -7336,7 +7460,7 @@
       <c r="A184" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="B184" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C184" s="14" t="s">
@@ -7347,7 +7471,7 @@
       <c r="A185" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B185" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C185" s="14" t="s">
@@ -7361,7 +7485,7 @@
       <c r="A186" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C186" s="14" t="s">
@@ -7378,7 +7502,7 @@
       <c r="A187" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="B187" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C187" s="14" t="s">
@@ -7389,7 +7513,7 @@
       <c r="A188" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B188" s="27" t="s">
+      <c r="B188" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C188" s="14" t="s">
@@ -7406,7 +7530,7 @@
       <c r="A189" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B189" s="27" t="s">
+      <c r="B189" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C189" s="14" t="s">
@@ -7420,13 +7544,13 @@
       <c r="A190" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C190" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D190" s="20" t="s">
+      <c r="D190" s="19" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7434,59 +7558,59 @@
       <c r="A191" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C191" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D191" s="20" t="s">
+      <c r="D191" s="19" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="20" t="s">
+      <c r="A194" s="19" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="33" t="s">
+      <c r="A196" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B196" s="33" t="s">
+      <c r="B196" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C196" s="33" t="s">
+      <c r="C196" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D196" s="33" t="s">
+      <c r="D196" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="E196" s="33" t="s">
+      <c r="E196" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F196" s="33" t="s">
+      <c r="F196" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G196" s="33" t="s">
+      <c r="G196" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H196" s="33" t="s">
+      <c r="H196" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="I196" s="33" t="s">
+      <c r="I196" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="J196" s="33"/>
+      <c r="J196" s="32"/>
     </row>
     <row r="197" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B197" s="27" t="s">
+      <c r="B197" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C197" s="30" t="s">
+      <c r="C197" s="29" t="s">
         <v>309</v>
       </c>
       <c r="D197" s="9" t="s">
@@ -7506,7 +7630,7 @@
       <c r="A198" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B198" s="27" t="s">
+      <c r="B198" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C198" s="14" t="s">
@@ -7529,7 +7653,7 @@
       <c r="A199" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B199" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C199" s="14" t="s">
@@ -7552,7 +7676,7 @@
       <c r="A200" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B200" s="27" t="s">
+      <c r="B200" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C200" s="14" t="s">
@@ -7575,7 +7699,7 @@
       <c r="A201" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B201" s="27" t="s">
+      <c r="B201" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C201" s="14" t="s">
@@ -7587,18 +7711,21 @@
       <c r="E201" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F201" s="20">
+      <c r="F201" s="19">
         <v>1</v>
       </c>
       <c r="G201" s="9" t="b">
         <v>1</v>
+      </c>
+      <c r="H201" s="41" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B202" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C202" s="14" t="s">
@@ -7610,7 +7737,7 @@
       <c r="E202" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F202" s="20">
+      <c r="F202" s="19">
         <v>1</v>
       </c>
       <c r="G202" s="9" t="b">
@@ -7621,7 +7748,7 @@
       <c r="A203" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B203" s="27" t="s">
+      <c r="B203" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C203" s="14" t="s">
@@ -7633,7 +7760,7 @@
       <c r="E203" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F203" s="20">
+      <c r="F203" s="19">
         <v>1</v>
       </c>
       <c r="G203" s="9" t="b">
@@ -7644,10 +7771,10 @@
       <c r="A204" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B204" s="27" t="s">
+      <c r="B204" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C204" s="30" t="s">
+      <c r="C204" s="29" t="s">
         <v>308</v>
       </c>
       <c r="D204" s="9" t="s">
@@ -7656,7 +7783,7 @@
       <c r="E204" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F204" s="20">
+      <c r="F204" s="19">
         <v>3</v>
       </c>
       <c r="G204" s="9" t="b">
@@ -7667,10 +7794,10 @@
       <c r="A205" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="29" t="s">
         <v>315</v>
       </c>
       <c r="D205" s="9" t="s">
@@ -7687,7 +7814,7 @@
       <c r="A206" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B206" s="27" t="s">
+      <c r="B206" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C206" s="14" t="s">
@@ -7704,7 +7831,7 @@
       <c r="A207" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B207" s="27" t="s">
+      <c r="B207" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C207" s="14" t="s">
@@ -7718,55 +7845,58 @@
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="20" t="s">
+      <c r="A209" s="19" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="33" t="s">
+      <c r="A211" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B211" s="33" t="s">
+      <c r="B211" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C211" s="33" t="s">
+      <c r="C211" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D211" s="33" t="s">
+      <c r="D211" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="E211" s="33" t="s">
+      <c r="E211" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F211" s="33" t="s">
+      <c r="F211" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G211" s="33" t="s">
+      <c r="G211" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H211" s="33" t="s">
+      <c r="H211" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="I211" s="33" t="s">
+      <c r="I211" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="J211" s="33"/>
+      <c r="J211" s="32"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B213" s="27" t="s">
+      <c r="B213" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C213" s="34" t="s">
+      <c r="C213" s="33" t="s">
         <v>320</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F213" s="9">
+        <v>36</v>
       </c>
       <c r="G213" s="9" t="b">
         <v>1</v>
@@ -7776,17 +7906,20 @@
       <c r="A214" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B214" s="27" t="s">
+      <c r="B214" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C214" s="34" t="s">
+      <c r="C214" s="33" t="s">
         <v>320</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F214" s="9">
+        <v>36</v>
       </c>
       <c r="G214" s="9" t="b">
         <v>1</v>
@@ -7796,17 +7929,20 @@
       <c r="A215" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B215" s="27" t="s">
+      <c r="B215" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C215" s="35" t="s">
+      <c r="C215" s="34" t="s">
         <v>337</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F215" s="9">
+        <v>36</v>
       </c>
       <c r="G215" s="9" t="b">
         <v>1</v>
@@ -7816,17 +7952,20 @@
       <c r="A216" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B216" s="27" t="s">
+      <c r="B216" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C216" s="35" t="s">
+      <c r="C216" s="34" t="s">
         <v>337</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F216" s="9">
+        <v>36</v>
       </c>
       <c r="G216" s="9" t="b">
         <v>1</v>
@@ -7836,17 +7975,20 @@
       <c r="A217" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B217" s="27" t="s">
+      <c r="B217" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C217" s="35" t="s">
+      <c r="C217" s="34" t="s">
         <v>338</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F217" s="9">
+        <v>36</v>
       </c>
       <c r="G217" s="9" t="b">
         <v>1</v>
@@ -7856,17 +7998,20 @@
       <c r="A218" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B218" s="27" t="s">
+      <c r="B218" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C218" s="35" t="s">
+      <c r="C218" s="34" t="s">
         <v>338</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F218" s="9">
+        <v>36</v>
       </c>
       <c r="G218" s="9" t="b">
         <v>1</v>
@@ -7876,17 +8021,20 @@
       <c r="A219" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B219" s="27" t="s">
+      <c r="B219" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C219" s="34" t="s">
+      <c r="C219" s="33" t="s">
         <v>339</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F219" s="9">
+        <v>36</v>
       </c>
       <c r="G219" s="9" t="b">
         <v>1</v>
@@ -7896,53 +8044,59 @@
       <c r="A220" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B220" s="27" t="s">
+      <c r="B220" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C220" s="35" t="s">
+      <c r="C220" s="34" t="s">
         <v>340</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="F220" s="14" t="s">
         <v>344</v>
       </c>
       <c r="G220" s="9" t="b">
         <v>1</v>
+      </c>
+      <c r="H220" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B221" s="27" t="s">
+      <c r="B221" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C221" s="36" t="s">
+      <c r="C221" s="35" t="s">
         <v>341</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="F221" s="14" t="s">
         <v>344</v>
       </c>
       <c r="G221" s="9" t="b">
         <v>1</v>
+      </c>
+      <c r="H221" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B222" s="27" t="s">
+      <c r="B222" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C222" s="10" t="s">
@@ -7952,30 +8106,36 @@
         <v>317</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="F222" s="14" t="s">
         <v>344</v>
       </c>
       <c r="G222" s="9" t="b">
         <v>1</v>
+      </c>
+      <c r="H222" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="B223" s="27" t="s">
+      <c r="B223" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C223" s="29" t="s">
+      <c r="C223" s="28" t="s">
         <v>342</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F223" s="9">
+        <v>36</v>
       </c>
       <c r="G223" s="9" t="b">
         <v>1</v>
@@ -7985,17 +8145,20 @@
       <c r="A224" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B224" s="27" t="s">
+      <c r="B224" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C224" s="29" t="s">
+      <c r="C224" s="28" t="s">
         <v>342</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F224" s="9">
+        <v>36</v>
       </c>
       <c r="G224" s="9" t="b">
         <v>1</v>
@@ -8005,17 +8168,20 @@
       <c r="A225" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B225" s="27" t="s">
+      <c r="B225" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C225" s="34" t="s">
+      <c r="C225" s="33" t="s">
         <v>345</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F225" s="9">
+        <v>36</v>
       </c>
       <c r="G225" s="9" t="b">
         <v>1</v>
@@ -8025,7 +8191,7 @@
       <c r="A226" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B226" s="27" t="s">
+      <c r="B226" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C226" s="10" t="s">
@@ -8035,7 +8201,10 @@
         <v>317</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F226" s="9">
+        <v>36</v>
       </c>
       <c r="G226" s="9" t="b">
         <v>1</v>
@@ -8045,7 +8214,7 @@
       <c r="A227" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B227" s="27" t="s">
+      <c r="B227" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C227" s="10" t="s">
@@ -8055,7 +8224,10 @@
         <v>317</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F227" s="9">
+        <v>36</v>
       </c>
       <c r="G227" s="9" t="b">
         <v>1</v>
@@ -8065,17 +8237,20 @@
       <c r="A228" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B228" s="27" t="s">
+      <c r="B228" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C228" s="35" t="s">
+      <c r="C228" s="34" t="s">
         <v>348</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F228" s="9">
+        <v>36</v>
       </c>
       <c r="G228" s="9" t="b">
         <v>1</v>
@@ -8085,7 +8260,7 @@
       <c r="A229" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B229" s="27" t="s">
+      <c r="B229" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C229" s="10" t="s">
@@ -8095,7 +8270,10 @@
         <v>317</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="F229" s="9">
+        <v>36</v>
       </c>
       <c r="G229" s="9" t="b">
         <v>1</v>
@@ -8107,47 +8285,47 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="33" t="s">
+      <c r="A232" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B232" s="33" t="s">
+      <c r="B232" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C232" s="33" t="s">
+      <c r="C232" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D232" s="33" t="s">
+      <c r="D232" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="E232" s="33" t="s">
+      <c r="E232" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F232" s="33" t="s">
+      <c r="F232" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G232" s="33" t="s">
+      <c r="G232" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H232" s="33" t="s">
+      <c r="H232" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="I232" s="33" t="s">
+      <c r="I232" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="J232" s="33"/>
+      <c r="J232" s="32"/>
     </row>
     <row r="233" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B233" s="27" t="s">
+      <c r="B233" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C233" s="40" t="s">
+      <c r="C233" s="39" t="s">
         <v>359</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>142</v>
@@ -8155,9 +8333,12 @@
       <c r="G233" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="H233" s="9">
+        <v>36</v>
+      </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="37" t="s">
+      <c r="A234" s="36" t="s">
         <v>360</v>
       </c>
       <c r="B234" s="14" t="s">
@@ -8171,10 +8352,10 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="41" t="s">
+      <c r="A235" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="B235" s="38" t="s">
+      <c r="B235" s="37" t="s">
         <v>363</v>
       </c>
       <c r="C235" s="11" t="s">
@@ -8188,10 +8369,10 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B236" s="38" t="s">
+      <c r="A236" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B236" s="37" t="s">
         <v>185</v>
       </c>
       <c r="C236" s="11" t="s">
@@ -8205,10 +8386,10 @@
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A237" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B237" s="38" t="s">
+      <c r="A237" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B237" s="37" t="s">
         <v>185</v>
       </c>
       <c r="C237" s="11" t="s">
@@ -8222,16 +8403,16 @@
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B238" s="38" t="s">
+      <c r="A238" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B238" s="37" t="s">
         <v>185</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D238" s="42" t="s">
+      <c r="D238" s="41" t="s">
         <v>364</v>
       </c>
       <c r="F238" s="9" t="s">
@@ -8240,6 +8421,167 @@
       <c r="G238" s="9" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B241" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C241" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="D241" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E241" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F241" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G241" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H241" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="I241" s="44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" s="40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" s="40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" s="40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" s="40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" s="40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" s="40" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="B250" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" s="40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>389</v>
+      </c>
+      <c r="B256" t="s">
+        <v>390</v>
+      </c>
+      <c r="C256" t="s">
+        <v>391</v>
+      </c>
+      <c r="D256" t="s">
+        <v>392</v>
+      </c>
+      <c r="E256" t="s">
+        <v>393</v>
+      </c>
+      <c r="F256" t="s">
+        <v>394</v>
+      </c>
+      <c r="G256" t="s">
+        <v>395</v>
+      </c>
+      <c r="H256" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>16</v>
+      </c>
+      <c r="B257">
+        <v>8</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>8</v>
+      </c>
+      <c r="E257">
+        <v>10</v>
+      </c>
+      <c r="F257">
+        <v>10</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258"/>
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258">
+        <v>5</v>
+      </c>
+      <c r="F258">
+        <v>5</v>
+      </c>
+      <c r="G258"/>
+      <c r="H258"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
